--- a/ClueBoard.xlsx
+++ b/ClueBoard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ClueGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ClueGame\ClueGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8843CAA-4C68-4B59-BBD8-E279DCFDF637}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9E3AAB-438D-4D8E-BC87-F32F5D7AEE06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24496" windowHeight="15796" xr2:uid="{773F7676-3B8C-4C7C-B85A-83C76B483AE4}"/>
+    <workbookView xWindow="38772" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{773F7676-3B8C-4C7C-B85A-83C76B483AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="44">
   <si>
     <t>C</t>
   </si>
@@ -145,6 +145,27 @@
   </si>
   <si>
     <t>BA</t>
+  </si>
+  <si>
+    <t>White: door direction tests (in FileInitTests)</t>
+  </si>
+  <si>
+    <t>Grey: room test (in FileInitTest)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dark Orange: adjaceny walkways </t>
+  </si>
+  <si>
+    <t>light blue: Test targets</t>
+  </si>
+  <si>
+    <t>Red: Test occupied</t>
+  </si>
+  <si>
+    <t>Light Orange: adjacency from rooms and doors</t>
+  </si>
+  <si>
+    <t>Number of doors: 19</t>
   </si>
 </sst>
 </file>
@@ -160,7 +181,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,6 +224,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -216,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -224,6 +281,13 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71EE943-024B-46D5-8876-91FE367BA842}">
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -568,9 +632,10 @@
     <col min="21" max="21" width="4.53125" customWidth="1"/>
     <col min="22" max="22" width="5.3984375" customWidth="1"/>
     <col min="23" max="23" width="5.265625" customWidth="1"/>
+    <col min="27" max="27" width="50.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>0</v>
       </c>
@@ -640,8 +705,11 @@
       <c r="X1">
         <v>22</v>
       </c>
+      <c r="AA1" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
@@ -714,8 +782,11 @@
       <c r="X2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="AA2" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
@@ -731,13 +802,13 @@
       <c r="E3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -788,24 +859,27 @@
       <c r="X3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="AA3" s="12" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -817,7 +891,7 @@
       <c r="I4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -844,7 +918,7 @@
       <c r="R4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="T4" s="1" t="s">
@@ -863,7 +937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
@@ -891,7 +965,7 @@
       <c r="I5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="11" t="s">
         <v>11</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -936,15 +1010,18 @@
       <c r="X5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="AA5" s="8" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1010,12 +1087,15 @@
       <c r="X6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="AA6" s="9" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1036,7 +1116,7 @@
       <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1078,14 +1158,17 @@
       <c r="V7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="AA7" s="10" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1158,8 +1241,11 @@
       <c r="X8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="AA8" s="13" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1178,7 +1264,7 @@
       <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="11" t="s">
         <v>13</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -1233,7 +1319,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1258,7 +1344,7 @@
       <c r="H10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="10" t="s">
         <v>5</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -1307,7 +1393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1381,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1406,7 +1492,7 @@
       <c r="H12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="13" t="s">
         <v>5</v>
       </c>
       <c r="J12" s="2" t="s">
@@ -1455,7 +1541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1529,7 +1615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1603,17 +1689,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="11" t="s">
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -1677,7 +1763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2051,13 +2137,13 @@
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="10" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -2078,7 +2164,7 @@
       <c r="J21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="10" t="s">
         <v>14</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -2105,7 +2191,7 @@
       <c r="S21" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" s="9" t="s">
         <v>5</v>
       </c>
       <c r="U21" s="2" t="s">
@@ -2170,7 +2256,7 @@
       <c r="P22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="9" t="s">
         <v>5</v>
       </c>
       <c r="R22" s="3" t="s">
@@ -2179,7 +2265,7 @@
       <c r="S22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T22" s="9" t="s">
         <v>5</v>
       </c>
       <c r="U22" s="6" t="s">
@@ -2202,7 +2288,7 @@
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2250,7 +2336,7 @@
       <c r="R23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="S23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="T23" s="1" t="s">
@@ -2279,7 +2365,7 @@
       <c r="C24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="8" t="s">
         <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2309,7 +2395,7 @@
       <c r="M24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N24" s="12" t="s">
         <v>18</v>
       </c>
       <c r="O24" s="1" t="s">
@@ -2430,7 +2516,7 @@
       <c r="D26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="12" t="s">
         <v>35</v>
       </c>
       <c r="F26" s="6" t="s">
@@ -2448,7 +2534,7 @@
       <c r="J26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="8" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="1" t="s">

--- a/ClueBoard.xlsx
+++ b/ClueBoard.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ClueGame\ClueGame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin Short\eclipse-workspace\ClueGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD9E3AAB-438D-4D8E-BC87-F32F5D7AEE06}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055DA20A-E2FF-4389-9ED3-FA6280550001}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38772" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{773F7676-3B8C-4C7C-B85A-83C76B483AE4}"/>
+    <workbookView xWindow="-15885" yWindow="2415" windowWidth="15435" windowHeight="11835" xr2:uid="{773F7676-3B8C-4C7C-B85A-83C76B483AE4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -605,37 +596,37 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" customWidth="1"/>
-    <col min="2" max="2" width="4.19921875" customWidth="1"/>
-    <col min="3" max="3" width="4.265625" customWidth="1"/>
-    <col min="4" max="4" width="5.19921875" customWidth="1"/>
-    <col min="5" max="5" width="5.265625" customWidth="1"/>
-    <col min="6" max="6" width="6.06640625" customWidth="1"/>
-    <col min="7" max="7" width="5.73046875" customWidth="1"/>
-    <col min="8" max="9" width="5.265625" customWidth="1"/>
-    <col min="10" max="10" width="5.53125" customWidth="1"/>
-    <col min="11" max="11" width="5.06640625" customWidth="1"/>
-    <col min="12" max="12" width="5.46484375" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.140625" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
+    <col min="8" max="9" width="5.28515625" customWidth="1"/>
+    <col min="10" max="10" width="5.5703125" customWidth="1"/>
+    <col min="11" max="11" width="5" customWidth="1"/>
+    <col min="12" max="12" width="5.42578125" customWidth="1"/>
     <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="14" max="14" width="5.59765625" customWidth="1"/>
-    <col min="15" max="15" width="4.9296875" customWidth="1"/>
-    <col min="16" max="16" width="5.46484375" customWidth="1"/>
-    <col min="17" max="17" width="5.53125" customWidth="1"/>
-    <col min="18" max="18" width="4.86328125" customWidth="1"/>
-    <col min="19" max="19" width="3.9296875" customWidth="1"/>
-    <col min="20" max="20" width="4.1328125" customWidth="1"/>
-    <col min="21" max="21" width="4.53125" customWidth="1"/>
-    <col min="22" max="22" width="5.3984375" customWidth="1"/>
-    <col min="23" max="23" width="5.265625" customWidth="1"/>
-    <col min="27" max="27" width="50.46484375" customWidth="1"/>
+    <col min="14" max="14" width="5.5703125" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" customWidth="1"/>
+    <col min="19" max="19" width="4" customWidth="1"/>
+    <col min="20" max="20" width="4.140625" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" customWidth="1"/>
+    <col min="23" max="23" width="5.28515625" customWidth="1"/>
+    <col min="27" max="27" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0</v>
       </c>
@@ -709,7 +700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -786,7 +777,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -863,7 +854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -937,7 +928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1014,7 +1005,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1091,7 +1082,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1168,7 +1159,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1245,7 +1236,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1319,7 +1310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1393,7 +1384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1467,7 +1458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1541,7 +1532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1615,7 +1606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1689,7 +1680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1763,7 +1754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1837,7 +1828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1911,7 +1902,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1985,7 +1976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -2059,7 +2050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -2133,7 +2124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -2207,7 +2198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -2281,7 +2272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -2355,7 +2346,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -2429,7 +2420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -2503,7 +2494,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -2577,7 +2568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
